--- a/BO-GTData/Suggestions.xlsx
+++ b/BO-GTData/Suggestions.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sprayable-hydrogels\BO-GTData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AD8F72-9A45-4B82-ABEA-7E94FBA7A817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A431F3-4077-4750-8BB0-C3211FD0C133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Initial design (20 samples)" sheetId="1" r:id="rId1"/>
+    <sheet name="Initial design (40 samples)" sheetId="2" r:id="rId2"/>
+    <sheet name="Initial design (32 samples)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
   <si>
     <t>PS</t>
   </si>
@@ -91,13 +93,19 @@
   </si>
   <si>
     <t>IPA:DI</t>
+  </si>
+  <si>
+    <t>EHVI (PS, GE, SM)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +117,12 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,13 +163,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,4 +680,605 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA608B08-3B7E-4FD9-B337-0A6A3C4E3E5A}">
+  <dimension ref="A1:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4404.8999999999996</v>
+      </c>
+      <c r="C3" s="6">
+        <v>67.978999999999999</v>
+      </c>
+      <c r="D3" s="6">
+        <v>29.766999999999999</v>
+      </c>
+      <c r="E3" s="6">
+        <v>15000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>98.777000000000001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3.4605000000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <v>86.778999999999996</v>
+      </c>
+      <c r="I3" s="6">
+        <v>87.558999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <v>148.971</v>
+      </c>
+      <c r="K3">
+        <v>22.809799999999999</v>
+      </c>
+      <c r="L3">
+        <v>13.761900000000001</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.82869999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4576.2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>48.585000000000001</v>
+      </c>
+      <c r="D4" s="6">
+        <v>22.481999999999999</v>
+      </c>
+      <c r="E4" s="6">
+        <v>14433</v>
+      </c>
+      <c r="F4" s="6">
+        <v>91.647999999999996</v>
+      </c>
+      <c r="G4" s="6">
+        <v>75.513999999999996</v>
+      </c>
+      <c r="H4" s="6">
+        <v>92.885000000000005</v>
+      </c>
+      <c r="I4" s="6">
+        <v>85.352000000000004</v>
+      </c>
+      <c r="J4" s="4">
+        <v>148.971</v>
+      </c>
+      <c r="K4">
+        <v>22.809799999999999</v>
+      </c>
+      <c r="L4">
+        <v>13.761900000000001</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.81369999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4858.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45.735999999999997</v>
+      </c>
+      <c r="D5" s="6">
+        <v>25.86</v>
+      </c>
+      <c r="E5" s="6">
+        <v>14606</v>
+      </c>
+      <c r="F5" s="6">
+        <v>94.307000000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <v>81.445999999999998</v>
+      </c>
+      <c r="H5" s="6">
+        <v>91.93</v>
+      </c>
+      <c r="I5" s="6">
+        <v>91.790999999999997</v>
+      </c>
+      <c r="J5" s="4">
+        <v>148.971</v>
+      </c>
+      <c r="K5">
+        <v>22.809799999999999</v>
+      </c>
+      <c r="L5">
+        <v>13.761900000000001</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.85589999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3822.4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>63.609000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18.46</v>
+      </c>
+      <c r="E6" s="6">
+        <v>14202</v>
+      </c>
+      <c r="F6" s="6">
+        <v>87.814999999999998</v>
+      </c>
+      <c r="G6" s="6">
+        <v>74.480999999999995</v>
+      </c>
+      <c r="H6" s="6">
+        <v>94.314999999999998</v>
+      </c>
+      <c r="I6" s="6">
+        <v>77.646000000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>148.971</v>
+      </c>
+      <c r="K6">
+        <v>22.809799999999999</v>
+      </c>
+      <c r="L6">
+        <v>13.761900000000001</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.84789999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12F4705-3E6F-4A09-B835-F2FD3D4542D8}">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="49" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4540</v>
+      </c>
+      <c r="C3" s="6">
+        <v>66.77</v>
+      </c>
+      <c r="D3" s="6">
+        <v>29.998999999999999</v>
+      </c>
+      <c r="E3" s="8">
+        <v>14463</v>
+      </c>
+      <c r="F3" s="6">
+        <v>98.29</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8.4360999999999997</v>
+      </c>
+      <c r="H3" s="6">
+        <v>87.87</v>
+      </c>
+      <c r="I3" s="6">
+        <v>87.271000000000001</v>
+      </c>
+      <c r="J3" s="4">
+        <v>170.77799999999999</v>
+      </c>
+      <c r="K3">
+        <v>24.182400000000001</v>
+      </c>
+      <c r="L3">
+        <v>13.738899999999999</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4646.2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>51.598999999999997</v>
+      </c>
+      <c r="D4" s="6">
+        <v>22.852</v>
+      </c>
+      <c r="E4" s="8">
+        <v>14436</v>
+      </c>
+      <c r="F4" s="6">
+        <v>92.162000000000006</v>
+      </c>
+      <c r="G4" s="6">
+        <v>64.709000000000003</v>
+      </c>
+      <c r="H4" s="6">
+        <v>93.74</v>
+      </c>
+      <c r="I4" s="6">
+        <v>85.816000000000003</v>
+      </c>
+      <c r="J4" s="4">
+        <v>170.77799999999999</v>
+      </c>
+      <c r="K4">
+        <v>24.182400000000001</v>
+      </c>
+      <c r="L4">
+        <v>13.738899999999999</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4589.7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>61.353999999999999</v>
+      </c>
+      <c r="D5" s="6">
+        <v>26.945</v>
+      </c>
+      <c r="E5" s="8">
+        <v>14385</v>
+      </c>
+      <c r="F5" s="6">
+        <v>96.52</v>
+      </c>
+      <c r="G5" s="6">
+        <v>31.376000000000001</v>
+      </c>
+      <c r="H5" s="6">
+        <v>90.703000000000003</v>
+      </c>
+      <c r="I5" s="6">
+        <v>86.326999999999998</v>
+      </c>
+      <c r="J5" s="4">
+        <v>170.77799999999999</v>
+      </c>
+      <c r="K5">
+        <v>24.182400000000001</v>
+      </c>
+      <c r="L5">
+        <v>13.738899999999999</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5044.3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>24.050999999999998</v>
+      </c>
+      <c r="E6" s="8">
+        <v>14235</v>
+      </c>
+      <c r="F6" s="6">
+        <v>87.933999999999997</v>
+      </c>
+      <c r="G6" s="6">
+        <v>75.644000000000005</v>
+      </c>
+      <c r="H6" s="6">
+        <v>92.554000000000002</v>
+      </c>
+      <c r="I6" s="6">
+        <v>92.085999999999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>170.77799999999999</v>
+      </c>
+      <c r="K6">
+        <v>24.182400000000001</v>
+      </c>
+      <c r="L6">
+        <v>13.738899999999999</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.85029999999999994</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I10" s="11"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>